--- a/My 3D RPG/Assets/StaticData/Excel/FormInfo.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/FormInfo.xlsx
@@ -428,7 +428,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/My 3D RPG/Assets/StaticData/Excel/FormInfo.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/FormInfo.xlsx
@@ -428,7 +428,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -553,7 +553,7 @@
         <v>5</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>3</v>

--- a/My 3D RPG/Assets/StaticData/Excel/FormInfo.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/FormInfo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -26,14 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxMana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxManaFactor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>atk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,6 +71,14 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxEnergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxEnergyFactor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,7 +428,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -447,16 +447,16 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -465,60 +465,60 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -541,13 +541,13 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3">
         <v>5</v>
